--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/без_пробілів/частоти_біграм_перетинаючі_без_пробілів.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/без_пробілів/частоти_біграм_перетинаючі_без_пробілів.xlsx
@@ -448,4047 +448,4047 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ми</t>
+          <t>то</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.003982718146614857</v>
+        <v>0.01622514563171728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>их</t>
+          <t>но</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001820814467532989</v>
+        <v>0.01182275399442219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ха</t>
+          <t>ст</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0007507306665953278</v>
+        <v>0.01118237571979856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>аи</t>
+          <t>на</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001842550544739535</v>
+        <v>0.01096835895961103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ил</t>
+          <t>по</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00763605112325359</v>
+        <v>0.01090482273393035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ла</t>
+          <t>ов</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009209408711819744</v>
+        <v>0.01082289444292106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>аф</t>
+          <t>ал</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003093210987085426</v>
+        <v>0.01068578995592592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>фа</t>
+          <t>не</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003260411580981936</v>
+        <v>0.01051524535015148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ан</t>
+          <t>ко</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008176109041539316</v>
+        <v>0.01025608442961189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>на</t>
+          <t>ро</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01096835895961103</v>
+        <v>0.009545481905551729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ас</t>
+          <t>ла</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006779984082503461</v>
+        <v>0.009209408711819744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>сь</t>
+          <t>ен</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004106446586098274</v>
+        <v>0.009099056319848049</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ье</t>
+          <t>го</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001307508644270704</v>
+        <v>0.009085680272336328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ев</t>
+          <t>ра</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004432487744196467</v>
+        <v>0.009007095993204968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ви</t>
+          <t>ос</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.004454223821403014</v>
+        <v>0.008983687910059457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ич</t>
+          <t>от</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002559841092555561</v>
+        <v>0.008936871743768433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>чб</t>
+          <t>он</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.845613659619719e-05</v>
+        <v>0.008871663512148796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>бу</t>
+          <t>ни</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001456317172838598</v>
+        <v>0.008674366811350915</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ул</t>
+          <t>ка</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002700289591428629</v>
+        <v>0.008508838223393369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>лг</t>
+          <t>ер</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004230175025581691</v>
+        <v>0.008192829100928967</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>га</t>
+          <t>ли</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00255649708067763</v>
+        <v>0.008184469071234142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ак</t>
+          <t>ан</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006373686639334943</v>
+        <v>0.008176109041539316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ко</t>
+          <t>во</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01025608442961189</v>
+        <v>0.007968780305107644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ов</t>
+          <t>ло</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01082289444292106</v>
+        <v>0.007890196025976284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>вм</t>
+          <t>ор</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0004698336688491918</v>
+        <v>0.007890196025976284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ма</t>
+          <t>ол</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004377311548210619</v>
+        <v>0.007826659800295611</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ст</t>
+          <t>пр</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01118237571979856</v>
+        <v>0.007722995432079775</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>те</t>
+          <t>ил</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.006942168658583076</v>
+        <v>0.00763605112325359</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ер</t>
+          <t>ом</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008192829100928967</v>
+        <v>0.007622675075741869</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ри</t>
+          <t>ва</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.006948856682338936</v>
+        <v>0.007560810856000161</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>им</t>
+          <t>ел</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003643300941004942</v>
+        <v>0.007428722386821918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ар</t>
+          <t>ет</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.005671444144969603</v>
+        <v>0.007099337216845795</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>рг</t>
+          <t>ри</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00123394038295624</v>
+        <v>0.006948856682338936</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ит</t>
+          <t>те</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.005765076477551648</v>
+        <v>0.006942168658583076</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>та</t>
+          <t>ат</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.006778312076564496</v>
+        <v>0.006871944409146541</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ат</t>
+          <t>ве</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.006871944409146541</v>
+        <v>0.006810080189404833</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ек</t>
+          <t>ас</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.002571545134128316</v>
+        <v>0.006779984082503461</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>кс</t>
+          <t>та</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0006554263280743174</v>
+        <v>0.006778312076564496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>тп</t>
+          <t>ре</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0007791547675577344</v>
+        <v>0.006686351749921416</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>пе</t>
+          <t>ес</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.002524728967837294</v>
+        <v>0.006636191571752463</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>еч</t>
+          <t>за</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001795734378448512</v>
+        <v>0.006542559239170418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ча</t>
+          <t>ак</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.002686913543916908</v>
+        <v>0.006373686639334943</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ае</t>
+          <t>од</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001747246206218525</v>
+        <v>0.006198126015743608</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ет</t>
+          <t>ит</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.007099337216845795</v>
+        <v>0.005765076477551648</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>тс</t>
+          <t>ог</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001506477351007551</v>
+        <v>0.005711572287504765</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ся</t>
+          <t>ар</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.004491007952060246</v>
+        <v>0.005671444144969603</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>яв</t>
+          <t>ин</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001907758776359174</v>
+        <v>0.005654724085579952</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>вп</t>
+          <t>ле</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001100179907839033</v>
+        <v>0.005636332020251336</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>по</t>
+          <t>ив</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01090482273393035</v>
+        <v>0.005581155824265487</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ос</t>
+          <t>ть</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.008983687910059457</v>
+        <v>0.005395563165040362</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>сл</t>
+          <t>ис</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.002994562636686485</v>
+        <v>0.005393891159101397</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ле</t>
+          <t>аз</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005636332020251336</v>
+        <v>0.005211642511754201</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ед</t>
+          <t>ем</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004001110211943473</v>
+        <v>0.00518154640485283</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>дн</t>
+          <t>ав</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.002518040944081433</v>
+        <v>0.005069522006942169</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>не</t>
+          <t>да</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01051524535015148</v>
+        <v>0.005032737876284937</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ей</t>
+          <t>ск</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.002210391851311856</v>
+        <v>0.004942449555580822</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>йп</t>
+          <t>об</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.00106005176530387</v>
+        <v>0.004720072765698463</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>пр</t>
+          <t>ну</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.007722995432079775</v>
+        <v>0.004633128456872279</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>иж</t>
+          <t>де</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0004430815738257502</v>
+        <v>0.004619752409360558</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>жи</t>
+          <t>ам</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.001366028852134483</v>
+        <v>0.004587984296520221</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>из</t>
+          <t>ти</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.003280475652249517</v>
+        <v>0.004584640284642291</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>зн</t>
+          <t>ой</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.00184087853880057</v>
+        <v>0.004532808100534374</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ен</t>
+          <t>че</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.009099056319848049</v>
+        <v>0.004506056005510932</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>нн</t>
+          <t>ся</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.004141558710816541</v>
+        <v>0.004491007952060246</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>но</t>
+          <t>ви</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01182275399442219</v>
+        <v>0.004454223821403014</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ой</t>
+          <t>ев</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.004532808100534374</v>
+        <v>0.004432487744196467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>йр</t>
+          <t>ма</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0003427612174878445</v>
+        <v>0.004377311548210619</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ре</t>
+          <t>ок</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.006686351749921416</v>
+        <v>0.004250239096849272</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>да</t>
+          <t>ик</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.005032737876284937</v>
+        <v>0.004228503019642726</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>кц</t>
+          <t>ль</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.5112124718267e-05</v>
+        <v>0.004163294788023087</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ци</t>
+          <t>нн</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0003828893600230068</v>
+        <v>0.004141558710816541</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ии</t>
+          <t>оп</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001682037974598886</v>
+        <v>0.00411815062767103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ир</t>
+          <t>сь</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00176229425966921</v>
+        <v>0.004106446586098274</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ру</t>
+          <t>мо</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.003012954702015101</v>
+        <v>0.004042910360417601</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ук</t>
+          <t>ед</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001559981541054434</v>
+        <v>0.004001110211943473</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>оп</t>
+          <t>ми</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.00411815062767103</v>
+        <v>0.003982718146614857</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>пи</t>
+          <t>ег</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.00149978932725169</v>
+        <v>0.00395429404565245</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ис</t>
+          <t>до</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.005393891159101397</v>
+        <v>0.003934229974384869</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>си</t>
+          <t>ки</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.002295664154199076</v>
+        <v>0.003828893600230068</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>хр</t>
+          <t>ме</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0003360731937319841</v>
+        <v>0.003818861564596277</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ра</t>
+          <t>ны</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.009007095993204968</v>
+        <v>0.003797125487389731</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ня</t>
+          <t>чт</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.001693742016171642</v>
+        <v>0.003649988964760803</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ят</t>
+          <t>им</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.001951230930772266</v>
+        <v>0.003643300941004942</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>вр</t>
+          <t>еп</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.001090147872205242</v>
+        <v>0.003619892857859431</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>сн</t>
+          <t>се</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.001422877054059296</v>
+        <v>0.003556356632178757</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ом</t>
+          <t>же</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.007622675075741869</v>
+        <v>0.003536292560911176</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>мо</t>
+          <t>тр</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.004042910360417601</v>
+        <v>0.003531276543094281</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>от</t>
+          <t>ап</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.008936871743768433</v>
+        <v>0.003434300198634306</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>тд</t>
+          <t>ад</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0003728573243892162</v>
+        <v>0.003397516067977073</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>де</t>
+          <t>вс</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.004619752409360558</v>
+        <v>0.003322275800723644</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ел</t>
+          <t>из</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.007428722386821918</v>
+        <v>0.003280475652249517</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ег</t>
+          <t>бы</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.00395429404565245</v>
+        <v>0.00325873957504297</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>го</t>
+          <t>со</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.009085680272336328</v>
+        <v>0.00325205155128711</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>су</t>
+          <t>лс</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0009848114980504411</v>
+        <v>0.003108259040536112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>уд</t>
+          <t>вы</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.002412704569926632</v>
+        <v>0.003101571016780252</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>рс</t>
+          <t>оч</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0003126651105864728</v>
+        <v>0.003016298713893032</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>тв</t>
+          <t>ру</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.00297617057135787</v>
+        <v>0.003012954702015101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ве</t>
+          <t>сл</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.006810080189404833</v>
+        <v>0.002994562636686485</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>йб</t>
+          <t>тв</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0003945934015957624</v>
+        <v>0.00297617057135787</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>би</t>
+          <t>эт</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0008125948863370362</v>
+        <v>0.002867490185325138</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>иб</t>
+          <t>бе</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.00140448498873068</v>
+        <v>0.002758809799292407</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>бл</t>
+          <t>ая</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0006754903993418985</v>
+        <v>0.00272035366269621</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ли</t>
+          <t>ку</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.008184469071234142</v>
+        <v>0.002710321627062419</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ио</t>
+          <t>ул</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.001732198152767839</v>
+        <v>0.002700289591428629</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ки</t>
+          <t>ча</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.003828893600230068</v>
+        <v>0.002686913543916908</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>сс</t>
+          <t>ьн</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.001355996816500692</v>
+        <v>0.002673537496405187</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ср</t>
+          <t>кр</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0002758809799292407</v>
+        <v>0.002611673276663479</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ме</t>
+          <t>ип</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.003818861564596277</v>
+        <v>0.002576561151945212</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ни</t>
+          <t>ек</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.008674366811350915</v>
+        <v>0.002571545134128316</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ив</t>
+          <t>ич</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.005581155824265487</v>
+        <v>0.002559841092555561</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ин</t>
+          <t>га</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.005654724085579952</v>
+        <v>0.00255649708067763</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>аа</t>
+          <t>пе</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0004715056747881568</v>
+        <v>0.002524728967837294</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>кж</t>
+          <t>ту</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0001805766414082303</v>
+        <v>0.002519712950020399</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>же</t>
+          <t>дн</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.003536292560911176</v>
+        <v>0.002518040944081433</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ес</t>
+          <t>оз</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.006636191571752463</v>
+        <v>0.002492960854996957</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>сп</t>
+          <t>ди</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.002293992148260111</v>
+        <v>0.002469552771851445</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ав</t>
+          <t>ид</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.005069522006942169</v>
+        <v>0.00246119274215662</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>вл</t>
+          <t>ше</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0009296353020645929</v>
+        <v>0.002446144688705934</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ия</t>
+          <t>уд</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.001354324810561727</v>
+        <v>0.002412704569926632</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ям</t>
+          <t>ез</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.00070224249436534</v>
+        <v>0.002345824332368029</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ид</t>
+          <t>бо</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.00246119274215662</v>
+        <v>0.002337464302673203</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>до</t>
+          <t>ое</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.003934229974384869</v>
+        <v>0.002334120290795273</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ол</t>
+          <t>ыл</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.007826659800295611</v>
+        <v>0.002330776278917343</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>лн</t>
+          <t>ут</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.001417861036242401</v>
+        <v>0.002305696189832866</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>сд</t>
+          <t>хо</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0004029534312905879</v>
+        <v>0.002300680172015971</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ны</t>
+          <t>си</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.003797125487389731</v>
+        <v>0.002295664154199076</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ым</t>
+          <t>сп</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.001645253843941654</v>
+        <v>0.002293992148260111</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ип</t>
+          <t>ож</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.002576561151945212</v>
+        <v>0.002285632118565285</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>од</t>
+          <t>ие</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.006198126015743608</v>
+        <v>0.00228396011262632</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>дд</t>
+          <t>мн</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6.019221380274343e-05</v>
+        <v>0.002282288106687355</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ди</t>
+          <t>му</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.002469552771851445</v>
+        <v>0.002262224035419774</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ик</t>
+          <t>ои</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.004228503019642726</v>
+        <v>0.002217079875067716</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>кт</t>
+          <t>ей</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.001065067783120766</v>
+        <v>0.002210391851311856</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>то</t>
+          <t>ши</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.01622514563171728</v>
+        <v>0.002153543649387043</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>вк</t>
+          <t>тн</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0011352920325573</v>
+        <v>0.002138495595936357</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ку</t>
+          <t>ый</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.002710321627062419</v>
+        <v>0.002118431524668775</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>уп</t>
+          <t>оо</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.001534901451969957</v>
+        <v>0.002078303382133613</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>са</t>
+          <t>св</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.002034831227720521</v>
+        <v>0.002056567304927067</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ля</t>
+          <t>ус</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.001638565820185793</v>
+        <v>0.002048207275232242</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>яе</t>
+          <t>са</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0002675209502344152</v>
+        <v>0.002034831227720521</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ож</t>
+          <t>еб</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.002285632118565285</v>
+        <v>0.001986343055490533</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>йе</t>
+          <t>па</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>8.025628507032456e-05</v>
+        <v>0.001982999043612603</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>сб</t>
+          <t>ят</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0002491288849057992</v>
+        <v>0.001951230930772266</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>во</t>
+          <t>ий</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.007968780305107644</v>
+        <v>0.00192615084168779</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>йч</t>
+          <t>яв</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.0004765216926050521</v>
+        <v>0.001907758776359174</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ть</t>
+          <t>яс</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.005395563165040362</v>
+        <v>0.001887694705091592</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ьп</t>
+          <t>ян</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.001081787842510417</v>
+        <v>0.001886022699152627</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>рв</t>
+          <t>чи</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.0007457146487784324</v>
+        <v>0.001872646651640907</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ва</t>
+          <t>аи</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.007560810856000161</v>
+        <v>0.001842550544739535</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ая</t>
+          <t>зн</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.00272035366269621</v>
+        <v>0.00184087853880057</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>кк</t>
+          <t>ьс</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.0003093210987085426</v>
+        <v>0.001824158479410919</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>жт</t>
+          <t>их</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.508008908447643e-05</v>
+        <v>0.001820814467532989</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ты</t>
+          <t>гл</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.00167367794490406</v>
+        <v>0.001814126443777128</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ын</t>
+          <t>еч</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.000650410310257422</v>
+        <v>0.001795734378448512</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>он</t>
+          <t>ее</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.008871663512148796</v>
+        <v>0.001792390366570582</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ец</t>
+          <t>ду</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0004113134609854134</v>
+        <v>0.001770654289364036</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ця</t>
+          <t>ир</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1.003203563379057e-05</v>
+        <v>0.00176229425966921</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>яч</t>
+          <t>ае</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.0004949137579336682</v>
+        <v>0.001747246206218525</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ьт</t>
+          <t>ио</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0008694430882618495</v>
+        <v>0.001732198152767839</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>йс</t>
+          <t>лу</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.00139779696497482</v>
+        <v>0.001725510129011978</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>лы</t>
+          <t>ьк</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.001019923622768708</v>
+        <v>0.001723838123073013</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ыч</t>
+          <t>ня</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.0002959450511968218</v>
+        <v>0.001693742016171642</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>чт</t>
+          <t>ии</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.003649988964760803</v>
+        <v>0.001682037974598886</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>чн</t>
+          <t>ты</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0009965155396231967</v>
+        <v>0.00167367794490406</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ох</t>
+          <t>ув</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0007457146487784324</v>
+        <v>0.0016669899211482</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>хо</t>
+          <t>аг</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.002300680172015971</v>
+        <v>0.001656957885514409</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>оч</t>
+          <t>ым</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.003016298713893032</v>
+        <v>0.001645253843941654</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>че</t>
+          <t>ля</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.004506056005510932</v>
+        <v>0.001638565820185793</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>тз</t>
+          <t>вн</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.0001922806829809859</v>
+        <v>0.001590077647955806</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>зл</t>
+          <t>ры</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.00043973756194782</v>
+        <v>0.001586733636077875</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>со</t>
+          <t>ач</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.00325205155128711</v>
+        <v>0.00157837360638305</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>рш</t>
+          <t>жа</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0005400579182857257</v>
+        <v>0.001566669564810294</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ша</t>
+          <t>ук</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.001215548317627624</v>
+        <v>0.001559981541054434</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>тб</t>
+          <t>гр</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0002708649621123454</v>
+        <v>0.001546605493542713</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>аг</t>
+          <t>уп</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.001656957885514409</v>
+        <v>0.001534901451969957</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ог</t>
+          <t>ун</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.005711572287504765</v>
+        <v>0.001524869416336167</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ге</t>
+          <t>тс</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.000580186060820888</v>
+        <v>0.001506477351007551</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>еф</t>
+          <t>пи</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0002257208017602879</v>
+        <v>0.00149978932725169</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ау</t>
+          <t>аж</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0006587703399522475</v>
+        <v>0.001494773309434795</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ус</t>
+          <t>уж</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.002048207275232242</v>
+        <v>0.001494773309434795</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>тг</t>
+          <t>ще</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.0001705446057744397</v>
+        <v>0.001483069267862039</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>гл</t>
+          <t>зв</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.001814126443777128</v>
+        <v>0.001476381244106179</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>гд</t>
+          <t>еи</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.001096835895961102</v>
+        <v>0.001468021214411354</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>аз</t>
+          <t>бу</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.005211642511754201</v>
+        <v>0.001456317172838598</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>зг</t>
+          <t>ыв</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0003895773837788672</v>
+        <v>0.001456317172838598</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ай</t>
+          <t>ах</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0006871944409146541</v>
+        <v>0.001451301155021703</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>йт</t>
+          <t>ум</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.0008125948863370362</v>
+        <v>0.001437925107509982</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>еи</t>
+          <t>сн</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.001468021214411354</v>
+        <v>0.001422877054059296</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>зв</t>
+          <t>аб</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.001476381244106179</v>
+        <v>0.001422877054059296</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>тн</t>
+          <t>лн</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.002138495595936357</v>
+        <v>0.001417861036242401</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>аж</t>
+          <t>иб</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.001494773309434795</v>
+        <v>0.00140448498873068</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>жд</t>
+          <t>йс</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.0008660990763839193</v>
+        <v>0.00139779696497482</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ды</t>
+          <t>жи</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.0005785140548819229</v>
+        <v>0.001366028852134483</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ыв</t>
+          <t>ео</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.001456317172838598</v>
+        <v>0.001362684840256553</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ою</t>
+          <t>сс</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.0004832097163609125</v>
+        <v>0.001355996816500692</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>юв</t>
+          <t>ия</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0003310571759150889</v>
+        <v>0.001354324810561727</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>вч</t>
+          <t>ьв</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.0003444332234268096</v>
+        <v>0.001330916727416216</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>еб</t>
+          <t>рн</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.001986343055490533</v>
+        <v>0.00132255669772139</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>бы</t>
+          <t>ье</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.00325873957504297</v>
+        <v>0.001307508644270704</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ал</t>
+          <t>ур</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.01068578995592592</v>
+        <v>0.001300820620514844</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ло</t>
+          <t>бр</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.007890196025976284</v>
+        <v>0.001274068525491403</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>жа</t>
+          <t>кн</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.001566669564810294</v>
+        <v>0.001270724513613472</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>рк</t>
+          <t>тк</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0005651380073702022</v>
+        <v>0.001269052507674507</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>оз</t>
+          <t>уг</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.002492960854996957</v>
+        <v>0.001243972418590031</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>за</t>
+          <t>рг</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.006542559239170418</v>
+        <v>0.00123394038295624</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ка</t>
+          <t>ыс</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.008508838223393369</v>
+        <v>0.001232268377017275</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ск</t>
+          <t>ря</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.004942449555580822</v>
+        <v>0.00123059637107831</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>кв</t>
+          <t>дв</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.001170404157275567</v>
+        <v>0.001225580353261415</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ап</t>
+          <t>щи</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.003434300198634306</v>
+        <v>0.00122390834732245</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>па</t>
+          <t>ша</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.001982999043612603</v>
+        <v>0.001215548317627624</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>тр</t>
+          <t>мс</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.003531276543094281</v>
+        <v>0.001208860293871764</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>иа</t>
+          <t>др</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0005250098648350398</v>
+        <v>0.001207188287932799</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ши</t>
+          <t>ао</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.002153543649387043</v>
+        <v>0.001193812240421078</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>хп</t>
+          <t>иц</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.0004430815738257502</v>
+        <v>0.001190468228543148</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ах</t>
+          <t>ую</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.001451301155021703</v>
+        <v>0.001182108198848322</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>оя</t>
+          <t>вш</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.0009614034149049297</v>
+        <v>0.001178764186970392</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ьд</t>
+          <t>кв</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0004798657044829823</v>
+        <v>0.001170404157275567</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>дв</t>
+          <t>иг</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.001225580353261415</v>
+        <v>0.001157028109763846</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>гр</t>
+          <t>уч</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.001546605493542713</v>
+        <v>0.001157028109763846</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>вы</t>
+          <t>ые</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.003101571016780252</v>
+        <v>0.001155356103824881</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ый</t>
+          <t>рт</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.002118431524668775</v>
+        <v>0.00115201209194695</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>йи</t>
+          <t>лв</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0006905384527925843</v>
+        <v>0.001150340086007986</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>йв</t>
+          <t>лк</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0008159388982149665</v>
+        <v>0.00114866808006902</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ню</t>
+          <t>яп</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.0001872646651640907</v>
+        <v>0.00114532406819109</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>юю</t>
+          <t>ял</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>7.022424943653399e-05</v>
+        <v>0.00114532406819109</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>юс</t>
+          <t>нт</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.000491569746055738</v>
+        <v>0.001136964038496265</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>се</t>
+          <t>ба</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.003556356632178757</v>
+        <v>0.001136964038496265</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>нь</t>
+          <t>вк</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.001093491884083172</v>
+        <v>0.0011352920325573</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ьк</t>
+          <t>еж</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.001723838123073013</v>
+        <v>0.001125259996923509</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ую</t>
+          <t>нд</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.001182108198848322</v>
+        <v>0.001121915985045579</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>юп</t>
+          <t>мп</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0003093210987085426</v>
+        <v>0.001116899967228684</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>уб</t>
+          <t>зд</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.0009914995218063014</v>
+        <v>0.001115227961289719</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ыл</t>
+          <t>йн</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.002330776278917343</v>
+        <v>0.001105195925655928</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>лм</t>
+          <t>вп</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0003745293303281813</v>
+        <v>0.001100179907839033</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ор</t>
+          <t>аш</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.007890196025976284</v>
+        <v>0.001100179907839033</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ро</t>
+          <t>ке</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.009545481905551729</v>
+        <v>0.001098507901900068</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>нл</t>
+          <t>гд</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3.845613659619719e-05</v>
+        <v>0.001096835895961102</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ыс</t>
+          <t>нь</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.001232268377017275</v>
+        <v>0.001093491884083172</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>св</t>
+          <t>вр</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.002056567304927067</v>
+        <v>0.001090147872205242</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ну</t>
+          <t>ьп</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.004633128456872279</v>
+        <v>0.001081787842510417</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>юш</t>
+          <t>кт</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>7.691227319239438e-05</v>
+        <v>0.001065067783120766</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>шл</t>
+          <t>пл</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.0005149778292012493</v>
+        <v>0.001065067783120766</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>яп</t>
+          <t>йп</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.00114532406819109</v>
+        <v>0.00106005176530387</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>пу</t>
+          <t>ош</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.0009496993733321741</v>
+        <v>0.001058379759364905</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>жк</t>
+          <t>ых</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.0001922806829809859</v>
+        <v>0.001048347723731115</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>мн</t>
+          <t>кл</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.002282288106687355</v>
+        <v>0.001036643682158359</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ке</t>
+          <t>ух</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.001098507901900068</v>
+        <v>0.001034971676219394</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>еа</t>
+          <t>лп</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.0004464255857036804</v>
+        <v>0.001028283652463534</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ош</t>
+          <t>яд</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.001058379759364905</v>
+        <v>0.001021595628707673</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>шо</t>
+          <t>лы</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.0002909290333799266</v>
+        <v>0.001019923622768708</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ыб</t>
+          <t>вт</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0004781936985440172</v>
+        <v>0.001011563593073883</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>бр</t>
+          <t>чн</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.001274068525491403</v>
+        <v>0.0009965155396231967</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>мл</t>
+          <t>це</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.0004180014847412738</v>
+        <v>0.0009931715277452665</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>иц</t>
+          <t>уб</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.001190468228543148</v>
+        <v>0.0009914995218063014</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>це</t>
+          <t>су</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.0009931715277452665</v>
+        <v>0.0009848114980504411</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ее</t>
+          <t>як</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.001792390366570582</v>
+        <v>0.0009764514683556156</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ещ</t>
+          <t>нс</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.0007039145003043051</v>
+        <v>0.0009697634445997552</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ща</t>
+          <t>оя</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.0005283538767129701</v>
+        <v>0.0009614034149049297</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ьс</t>
+          <t>пу</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.001824158479410919</v>
+        <v>0.0009496993733321741</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>рх</t>
+          <t>вл</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.0002608329264785549</v>
+        <v>0.0009296353020645929</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>хь</t>
+          <t>мв</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>0.0009279632961256279</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ых</t>
+          <t>яи</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.001048347723731115</v>
+        <v>0.0009212752723697674</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>зм</t>
+          <t>еш</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.0003828893600230068</v>
+        <v>0.0009196032664308024</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>чк</t>
+          <t>ьи</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.0006102821677222598</v>
+        <v>0.0009179312604918373</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>рн</t>
+          <t>ву</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.00132255669772139</v>
+        <v>0.0008995391951632212</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>йо</t>
+          <t>аю</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.0004598016332154012</v>
+        <v>0.0008828191357735703</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>вт</t>
+          <t>зо</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.001011563593073883</v>
+        <v>0.0008761311120177099</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>пл</t>
+          <t>ыт</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.001065067783120766</v>
+        <v>0.0008761311120177099</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>чи</t>
+          <t>ьт</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.001872646651640907</v>
+        <v>0.0008694430882618495</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ры</t>
+          <t>жд</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.001586733636077875</v>
+        <v>0.0008660990763839193</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ыж</t>
+          <t>уш</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.0001254004454223822</v>
+        <v>0.0008610830585670241</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>йм</t>
+          <t>уи</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.0004781936985440172</v>
+        <v>0.0008477070110553032</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>вз</t>
+          <t>йк</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.000648738304318457</v>
+        <v>0.0008393469813604778</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>йн</t>
+          <t>мы</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.001105195925655928</v>
+        <v>0.0008293149457266872</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ок</t>
+          <t>см</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.004250239096849272</v>
+        <v>0.000824298927909792</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>кл</t>
+          <t>йв</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.001036643682158359</v>
+        <v>0.0008159388982149665</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>тч</t>
+          <t>би</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.0007039145003043051</v>
+        <v>0.0008125948863370362</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>йк</t>
+          <t>йт</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.0008393469813604778</v>
+        <v>0.0008125948863370362</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>еп</t>
+          <t>ги</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.003619892857859431</v>
+        <v>0.0008125948863370362</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>пк</t>
+          <t>лю</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.0001086803860327312</v>
+        <v>0.000807578868520141</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>лв</t>
+          <t>ьо</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.001150340086007986</v>
+        <v>0.0007992188388253155</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>вб</t>
+          <t>жн</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.0002758809799292407</v>
+        <v>0.0007958748269473854</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>бо</t>
+          <t>тп</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.002337464302673203</v>
+        <v>0.0007791547675577344</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>еж</t>
+          <t>еу</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.001125259996923509</v>
+        <v>0.0007674507259849787</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>хб</t>
+          <t>зе</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.0001304164632392774</v>
+        <v>0.0007657787200460136</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>бе</t>
+          <t>ца</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.002758809799292407</v>
+        <v>0.0007574186903511882</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>рю</t>
+          <t>ха</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.000299289063074752</v>
+        <v>0.0007507306665953278</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>юк</t>
+          <t>рв</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.0002675209502344152</v>
+        <v>0.0007457146487784324</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>хи</t>
+          <t>ох</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.0006537543221353522</v>
+        <v>0.0007457146487784324</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>хт</t>
+          <t>иш</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.0001521525404458237</v>
+        <v>0.0007406986309615372</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ои</t>
+          <t>рь</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.002217079875067716</v>
+        <v>0.0007406986309615372</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>км</t>
+          <t>оу</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.0001922806829809859</v>
+        <v>0.0007256505775108513</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>нд</t>
+          <t>ещ</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.001121915985045579</v>
+        <v>0.0007039145003043051</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>др</t>
+          <t>тч</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.001207188287932799</v>
+        <v>0.0007039145003043051</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>рл</t>
+          <t>ям</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.0003293851699761237</v>
+        <v>0.00070224249436534</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>зп</t>
+          <t>мя</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.0002424408611499388</v>
+        <v>0.0006955544706094796</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>дс</t>
+          <t>йи</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.0005902180964546787</v>
+        <v>0.0006905384527925843</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ль</t>
+          <t>дь</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.004163294788023087</v>
+        <v>0.0006905384527925843</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>яо</t>
+          <t>ай</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.0006052661499053645</v>
+        <v>0.0006871944409146541</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>зк</t>
+          <t>ьм</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.0003310571759150889</v>
+        <v>0.0006871944409146541</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>кр</t>
+          <t>бл</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.002611673276663479</v>
+        <v>0.0006754903993418985</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>пн</t>
+          <t>иу</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.0003059770868306124</v>
+        <v>0.0006637863577691428</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>йш</t>
+          <t>хн</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.000297617057135787</v>
+        <v>0.0006604423458912126</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>хм</t>
+          <t>ау</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0002090007423706369</v>
+        <v>0.0006587703399522475</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>вс</t>
+          <t>зи</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.003322275800723644</v>
+        <v>0.0006570983340132824</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>хл</t>
+          <t>кс</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.0003043050808916473</v>
+        <v>0.0006554263280743174</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ту</t>
+          <t>хи</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.002519712950020399</v>
+        <v>0.0006537543221353522</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ур</t>
+          <t>ех</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.001300820620514844</v>
+        <v>0.0006520823161963871</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>оц</t>
+          <t>ын</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.0001822486473471954</v>
+        <v>0.000650410310257422</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ац</t>
+          <t>вз</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.0001203844276054869</v>
+        <v>0.000648738304318457</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ий</t>
+          <t>яз</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.00192615084168779</v>
+        <v>0.0006286742330508758</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ащ</t>
+          <t>вв</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.0004347215441309247</v>
+        <v>0.0006236582152339805</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ще</t>
+          <t>ыш</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.001483069267862039</v>
+        <v>0.0006219862092950154</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>уе</t>
+          <t>ып</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.0003043050808916473</v>
+        <v>0.0006219862092950154</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ем</t>
+          <t>ья</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.00518154640485283</v>
+        <v>0.0006186421974170853</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ти</t>
+          <t>чк</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.004584640284642291</v>
+        <v>0.0006102821677222598</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>рт</t>
+          <t>мк</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.00115201209194695</v>
+        <v>0.0006069381558443295</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>лс</t>
+          <t>яо</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.003108259040536112</v>
+        <v>0.0006052661499053645</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ху</t>
+          <t>вд</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.0003210251402812983</v>
+        <v>0.0006052661499053645</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>жу</t>
+          <t>лл</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.000229064813638218</v>
+        <v>0.0006052661499053645</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ам</t>
+          <t>тя</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.004587984296520221</v>
+        <v>0.0006052661499053645</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ут</t>
+          <t>чу</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.002305696189832866</v>
+        <v>0.0006019221380274343</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>оэ</t>
+          <t>фе</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.0005517619598584814</v>
+        <v>0.000598578126149504</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>эт</t>
+          <t>гу</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.002867490185325138</v>
+        <v>0.000596906120210539</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>чп</t>
+          <t>дс</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>8.025628507032456e-05</v>
+        <v>0.0005902180964546787</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ыр</t>
+          <t>ге</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.0003962654075347276</v>
+        <v>0.000580186060820888</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>иш</t>
+          <t>ды</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.0007406986309615372</v>
+        <v>0.0005785140548819229</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>шу</t>
+          <t>вь</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.0004614736391543663</v>
+        <v>0.0005751700430039928</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ущ</t>
+          <t>лт</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.0003009610690137171</v>
+        <v>0.0005718260311260626</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>щи</t>
+          <t>ющ</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.00122390834732245</v>
+        <v>0.0005684820192481324</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>дп</t>
+          <t>рк</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.0003009610690137171</v>
+        <v>0.0005651380073702022</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>пс</t>
+          <t>лч</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>4.681616629102267e-05</v>
+        <v>0.0005551059717364116</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>вд</t>
+          <t>ьч</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0006052661499053645</v>
+        <v>0.0005534339657974466</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>мб</t>
+          <t>оэ</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.0003578092709385303</v>
+        <v>0.0005517619598584814</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ез</t>
+          <t>дл</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.002345824332368029</v>
+        <v>0.0005450739361026211</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>зд</t>
+          <t>рш</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.001115227961289719</v>
+        <v>0.0005400579182857257</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>вв</t>
+          <t>зу</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.0006236582152339805</v>
+        <v>0.0005333698945298653</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ьч</t>
+          <t>ща</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.0005534339657974466</v>
+        <v>0.0005283538767129701</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>чу</t>
+          <t>иа</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.0006019221380274343</v>
+        <v>0.0005250098648350398</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ьз</t>
+          <t>шл</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.00043973756194782</v>
+        <v>0.0005149778292012493</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>зе</t>
+          <t>йд</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.0007657787200460136</v>
+        <v>0.0005116338173233191</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ею</t>
+          <t>гн</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.0002156887661264973</v>
+        <v>0.0005066177995064239</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ющ</t>
+          <t>уз</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.0005684820192481324</v>
+        <v>0.0005066177995064239</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>пп</t>
+          <t>нп</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>7.524026725342928e-05</v>
+        <v>0.0005032737876284936</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>мд</t>
+          <t>дя</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.0003226971462202634</v>
+        <v>0.0005032737876284936</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>кп</t>
+          <t>мч</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.000438065556008855</v>
+        <v>0.0004965857638726332</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>аш</t>
+          <t>яч</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.001100179907839033</v>
+        <v>0.0004949137579336682</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ше</t>
+          <t>юс</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.002446144688705934</v>
+        <v>0.000491569746055738</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ад</t>
+          <t>лб</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.003397516067977073</v>
+        <v>0.000491569746055738</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ью</t>
+          <t>хв</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.0003912493897178323</v>
+        <v>0.0004848817222998776</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ыд</t>
+          <t>дк</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.0002708649621123454</v>
+        <v>0.0004848817222998776</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ду</t>
+          <t>ою</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.001770654289364036</v>
+        <v>0.0004832097163609125</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>тм</t>
+          <t>ьд</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.0002675209502344152</v>
+        <v>0.0004798657044829823</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ву</t>
+          <t>ыб</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.0008995391951632212</v>
+        <v>0.0004781936985440172</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ьэ</t>
+          <t>йм</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.0001488085285678935</v>
+        <v>0.0004781936985440172</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>шн</t>
+          <t>нк</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.0004648176510322965</v>
+        <v>0.0004781936985440172</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>оу</t>
+          <t>йч</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.0007256505775108513</v>
+        <v>0.0004765216926050521</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>йа</t>
+          <t>аа</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.0001972967007978812</v>
+        <v>0.0004715056747881568</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>лл</t>
+          <t>вм</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.0006052661499053645</v>
+        <v>0.0004698336688491918</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ьн</t>
+          <t>мг</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.002673537496405187</v>
+        <v>0.0004681616629102266</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>йу</t>
+          <t>шн</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.0002090007423706369</v>
+        <v>0.0004648176510322965</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ео</t>
+          <t>шк</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.001362684840256553</v>
+        <v>0.0004648176510322965</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>уж</t>
+          <t>сч</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.001494773309434795</v>
+        <v>0.0004631456450933314</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>яи</t>
+          <t>шу</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.0009212752723697674</v>
+        <v>0.0004614736391543663</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ыш</t>
+          <t>ют</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.0006219862092950154</v>
+        <v>0.0004614736391543663</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>нц</t>
+          <t>йо</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.0003661693006333558</v>
+        <v>0.0004598016332154012</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ув</t>
+          <t>ык</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.0016669899211482</v>
+        <v>0.0004598016332154012</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ух</t>
+          <t>зы</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.001034971676219394</v>
+        <v>0.0004547856153985059</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>мт</t>
+          <t>пя</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.000386233371900937</v>
+        <v>0.0004531136094595408</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ум</t>
+          <t>оф</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.001437925107509982</v>
+        <v>0.0004497695975816106</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ое</t>
+          <t>ящ</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.002334120290795273</v>
+        <v>0.0004480975916426455</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ьц</t>
+          <t>еа</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.0001504805345068586</v>
+        <v>0.0004464255857036804</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>цо</t>
+          <t>иж</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.0003410892115488794</v>
+        <v>0.0004430815738257502</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>лп</t>
+          <t>хп</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.001028283652463534</v>
+        <v>0.0004430815738257502</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>дл</t>
+          <t>зл</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.0005450739361026211</v>
+        <v>0.00043973756194782</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>пы</t>
+          <t>ьз</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.0003929213956567974</v>
+        <v>0.00043973756194782</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>аб</t>
+          <t>яб</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.001422877054059296</v>
+        <v>0.00043973756194782</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ея</t>
+          <t>кп</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.0003544652590606002</v>
+        <v>0.000438065556008855</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>яд</t>
+          <t>ащ</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.001021595628707673</v>
+        <v>0.0004347215441309247</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>рз</t>
+          <t>йг</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>9.028832070411515e-05</v>
+        <v>0.0004297055263140295</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>лб</t>
+          <t>нв</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.000491569746055738</v>
+        <v>0.0004280335203750644</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ун</t>
+          <t>вг</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.001524869416336167</v>
+        <v>0.0004246895084971342</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>уо</t>
+          <t>ьш</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.0003945934015957624</v>
+        <v>0.0004246895084971342</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>нщ</t>
+          <t>лг</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.0002090007423706369</v>
+        <v>0.0004230175025581691</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>му</t>
+          <t>яг</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.002262224035419774</v>
+        <v>0.000421345496619204</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>оо</t>
+          <t>мл</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.002078303382133613</v>
+        <v>0.0004180014847412738</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>об</t>
+          <t>ец</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.004720072765698463</v>
+        <v>0.0004113134609854134</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>мг</t>
+          <t>сд</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.0004681616629102266</v>
+        <v>0.0004029534312905879</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>яб</t>
+          <t>фи</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.00043973756194782</v>
+        <v>0.0004012814253516229</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>зу</t>
+          <t>шь</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.0005333698945298653</v>
+        <v>0.0003996094194126577</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>тк</t>
+          <t>тл</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.001269052507674507</v>
+        <v>0.0003979374134736927</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ач</t>
+          <t>ыр</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.00157837360638305</v>
+        <v>0.0003962654075347276</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>яс</t>
+          <t>бя</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.001887694705091592</v>
+        <v>0.0003962654075347276</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ао</t>
+          <t>йб</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.001193812240421078</v>
+        <v>0.0003945934015957624</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>юж</t>
+          <t>уо</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>5.684820192481324e-05</v>
+        <v>0.0003945934015957624</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>лт</t>
+          <t>пы</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.0005718260311260626</v>
+        <v>0.0003929213956567974</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>уи</t>
+          <t>ью</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.0008477070110553032</v>
+        <v>0.0003912493897178323</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>хе</t>
+          <t>зг</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.0001153684097885916</v>
+        <v>0.0003895773837788672</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>вш</t>
+          <t>мт</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.001178764186970392</v>
+        <v>0.000386233371900937</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ьл</t>
+          <t>ци</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.0001621845760796142</v>
+        <v>0.0003828893600230068</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ьр</t>
+          <t>зм</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.0002039847245537416</v>
+        <v>0.0003828893600230068</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ьи</t>
+          <t>бн</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.0009179312604918373</v>
+        <v>0.0003828893600230068</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>иу</t>
+          <t>сы</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.0006637863577691428</v>
+        <v>0.0003812173540840417</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>мк</t>
+          <t>ыи</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.0006069381558443295</v>
+        <v>0.0003812173540840417</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>кб</t>
+          <t>лм</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,2667 +4498,2667 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>лю</t>
+          <t>кб</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.000807578868520141</v>
+        <v>0.0003745293303281813</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>юч</t>
+          <t>юд</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.0002591609205395897</v>
+        <v>0.0003745293303281813</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ьв</t>
+          <t>тд</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.001330916727416216</v>
+        <v>0.0003728573243892162</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>аю</t>
+          <t>нц</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.0008828191357735703</v>
+        <v>0.0003661693006333558</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>нв</t>
+          <t>вя</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.0004280335203750644</v>
+        <v>0.0003661693006333558</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>вн</t>
+          <t>рд</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.001590077647955806</v>
+        <v>0.0003644972946943908</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>рд</t>
+          <t>хс</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.0003644972946943908</v>
+        <v>0.0003628252887554257</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>дц</t>
+          <t>зр</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.0002508008908447643</v>
+        <v>0.0003628252887554257</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>кн</t>
+          <t>ьб</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.001270724513613472</v>
+        <v>0.0003628252887554257</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>гн</t>
+          <t>мб</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.0005066177995064239</v>
+        <v>0.0003578092709385303</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>мв</t>
+          <t>тт</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.0009279632961256279</v>
+        <v>0.0003561372649995653</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>иг</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.001157028109763846</v>
+        <v>0.0003561372649995653</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>йз</t>
+          <t>ея</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.0002357528373940784</v>
+        <v>0.0003544652590606002</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>хв</t>
+          <t>аэ</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.0004848817222998776</v>
+        <v>0.0003494492412437049</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>хч</t>
+          <t>вч</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>8.192829100928967e-05</v>
+        <v>0.0003444332234268096</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>уз</t>
+          <t>йр</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.0005066177995064239</v>
+        <v>0.0003427612174878445</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>сж</t>
+          <t>цо</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.0001471365226289284</v>
+        <v>0.0003410892115488794</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>зо</t>
+          <t>хр</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.0008761311120177099</v>
+        <v>0.0003360731937319841</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>дк</t>
+          <t>юв</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.0004848817222998776</v>
+        <v>0.0003310571759150889</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>зт</t>
+          <t>зк</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>7.18962553754991e-05</v>
+        <v>0.0003310571759150889</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ян</t>
+          <t>рл</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.001886022699152627</v>
+        <v>0.0003293851699761237</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>уг</t>
+          <t>фа</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.001243972418590031</v>
+        <v>0.0003260411580981936</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>нп</t>
+          <t>яр</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.0005032737876284936</v>
+        <v>0.0003243691521592285</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ыт</t>
+          <t>мд</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.0008761311120177099</v>
+        <v>0.0003226971462202634</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>бп</t>
+          <t>дт</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1.839206532861605e-05</v>
+        <v>0.0003226971462202634</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>мп</t>
+          <t>ху</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.001116899967228684</v>
+        <v>0.0003210251402812983</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>лч</t>
+          <t>лд</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.0005551059717364116</v>
+        <v>0.0003210251402812983</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>йэ</t>
+          <t>уа</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>8.694430882618495e-05</v>
+        <v>0.0003143371165254379</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>еш</t>
+          <t>рс</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.0009196032664308024</v>
+        <v>0.0003126651105864728</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>тя</t>
+          <t>аф</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.0006052661499053645</v>
+        <v>0.0003093210987085426</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>еу</t>
+          <t>кк</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.0007674507259849787</v>
+        <v>0.0003093210987085426</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>лу</t>
+          <t>юп</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.001725510129011978</v>
+        <v>0.0003093210987085426</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>уй</t>
+          <t>вэ</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.0001738886176523699</v>
+        <v>0.0003076490927695775</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>кч</t>
+          <t>пн</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.0002123447542485671</v>
+        <v>0.0003059770868306124</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>хс</t>
+          <t>хл</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.0003628252887554257</v>
+        <v>0.0003043050808916473</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>сг</t>
+          <t>уе</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.0001705446057744397</v>
+        <v>0.0003043050808916473</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>гу</t>
+          <t>чь</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.000596906120210539</v>
+        <v>0.0003026330749526823</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>зэ</t>
+          <t>мр</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>3.176811284033681e-05</v>
+        <v>0.0003026330749526823</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>зр</t>
+          <t>оа</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.0003628252887554257</v>
+        <v>0.0003026330749526823</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>йг</t>
+          <t>ущ</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.0004297055263140295</v>
+        <v>0.0003009610690137171</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>жо</t>
+          <t>дп</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>8.360029694825476e-05</v>
+        <v>0.0003009610690137171</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>зи</t>
+          <t>рю</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.0006570983340132824</v>
+        <v>0.000299289063074752</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>зы</t>
+          <t>еэ</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.0004547856153985059</v>
+        <v>0.000299289063074752</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>уш</t>
+          <t>фо</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.0008610830585670241</v>
+        <v>0.000299289063074752</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>йж</t>
+          <t>йш</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.0001571685582627189</v>
+        <v>0.000297617057135787</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>дж</t>
+          <t>ьг</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>6.520823161963871e-05</v>
+        <v>0.000297617057135787</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>чо</t>
+          <t>ыч</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.0001237284394834171</v>
+        <v>0.0002959450511968218</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>ию</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.0001153684097885916</v>
+        <v>0.0002942730452578568</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>нр</t>
+          <t>юн</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.0001270724513613472</v>
+        <v>0.0002926010393188916</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>кх</t>
+          <t>шо</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>4.012814253516228e-05</v>
+        <v>0.0002909290333799266</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>иф</t>
+          <t>лж</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0.0001805766414082303</v>
+        <v>0.0002892570274409615</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>фи</t>
+          <t>яу</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.0004012814253516229</v>
+        <v>0.0002859130155630313</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ьг</t>
+          <t>хк</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.000297617057135787</v>
+        <v>0.0002859130155630313</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>яж</t>
+          <t>рп</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0.0002508008908447643</v>
+        <v>0.0002842410096240662</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ьб</t>
+          <t>лр</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.0003628252887554257</v>
+        <v>0.000280896997746136</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ык</t>
+          <t>рж</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.0004598016332154012</v>
+        <v>0.0002775529858682058</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>мя</t>
+          <t>ср</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0.0006955544706094796</v>
+        <v>0.0002758809799292407</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>см</t>
+          <t>вб</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.000824298927909792</v>
+        <v>0.0002758809799292407</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>лэ</t>
+          <t>ощ</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>8.694430882618495e-05</v>
+        <v>0.0002758809799292407</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>зь</t>
+          <t>нч</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0.0001805766414082303</v>
+        <v>0.0002742089739902756</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>мч</t>
+          <t>тб</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.0004965857638726332</v>
+        <v>0.0002708649621123454</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>нз</t>
+          <t>ыд</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.0002090007423706369</v>
+        <v>0.0002708649621123454</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>нч</t>
+          <t>юб</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.0002742089739902756</v>
+        <v>0.0002708649621123454</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ьм</t>
+          <t>рм</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.0006871944409146541</v>
+        <v>0.0002708649621123454</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>сч</t>
+          <t>яе</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.0004631456450933314</v>
+        <v>0.0002675209502344152</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>зс</t>
+          <t>юк</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.0001956246948589161</v>
+        <v>0.0002675209502344152</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ца</t>
+          <t>тм</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0.0007574186903511882</v>
+        <v>0.0002675209502344152</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>фу</t>
+          <t>уф</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>6.186421974170853e-05</v>
+        <v>0.0002658489442954502</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>лр</t>
+          <t>рх</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0.000280896997746136</v>
+        <v>0.0002608329264785549</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ыз</t>
+          <t>рч</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.0002390968492720086</v>
+        <v>0.0002608329264785549</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>шь</t>
+          <t>зб</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.0003996094194126577</v>
+        <v>0.0002608329264785549</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>тж</t>
+          <t>юч</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0.0001705446057744397</v>
+        <v>0.0002591609205395897</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>юц</t>
+          <t>ях</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>3.67841306572321e-05</v>
+        <v>0.0002558169086616596</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>яу</t>
+          <t>мз</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0.0002859130155630313</v>
+        <v>0.0002541449027226945</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ех</t>
+          <t>ищ</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0.0006520823161963871</v>
+        <v>0.0002541449027226945</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>хн</t>
+          <t>зя</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.0006604423458912126</v>
+        <v>0.0002541449027226945</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>вг</t>
+          <t>ыо</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0.0004246895084971342</v>
+        <v>0.0002524728967837294</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ыг</t>
+          <t>дц</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0.0002240487958213228</v>
+        <v>0.0002508008908447643</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>бм</t>
+          <t>яж</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>6.186421974170853e-05</v>
+        <v>0.0002508008908447643</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>чь</t>
+          <t>сб</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0.0003026330749526823</v>
+        <v>0.0002491288849057992</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ьш</t>
+          <t>ьу</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.0004246895084971342</v>
+        <v>0.0002441128670889039</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>юа</t>
+          <t>иэ</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>7.691227319239438e-05</v>
+        <v>0.0002441128670889039</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>нт</t>
+          <t>зп</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0.001136964038496265</v>
+        <v>0.0002424408611499388</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ги</t>
+          <t>ыз</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0.0008125948863370362</v>
+        <v>0.0002390968492720086</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>яа</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1.170404157275567e-05</v>
+        <v>0.0002374248433330435</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>уэ</t>
+          <t>йз</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>9.530433852101043e-05</v>
+        <v>0.0002357528373940784</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>чс</t>
+          <t>дм</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>5.350419004688304e-05</v>
+        <v>0.0002340808314551133</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ию</t>
+          <t>яя</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0.0002942730452578568</v>
+        <v>0.0002340808314551133</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>юе</t>
+          <t>жу</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>3.5112124718267e-05</v>
+        <v>0.000229064813638218</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>юр</t>
+          <t>еф</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.0001705446057744397</v>
+        <v>0.0002257208017602879</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>мы</t>
+          <t>фр</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0.0008293149457266872</v>
+        <v>0.0002257208017602879</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>сю</t>
+          <t>ыг</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0.0001136964038496265</v>
+        <v>0.0002240487958213228</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>тт</t>
+          <t>лз</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0.0003561372649995653</v>
+        <v>0.0002190327780044275</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>рь</t>
+          <t>ею</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0.0007406986309615372</v>
+        <v>0.0002156887661264973</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>рч</t>
+          <t>кч</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.0002608329264785549</v>
+        <v>0.0002123447542485671</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ып</t>
+          <t>бь</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0.0006219862092950154</v>
+        <v>0.0002123447542485671</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>дч</t>
+          <t>юи</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0.000105336374154801</v>
+        <v>0.0002123447542485671</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ьо</t>
+          <t>хм</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0.0007992188388253155</v>
+        <v>0.0002090007423706369</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>юо</t>
+          <t>йу</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0.0001789046354692652</v>
+        <v>0.0002090007423706369</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>бк</t>
+          <t>нщ</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0.0001972967007978812</v>
+        <v>0.0002090007423706369</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ял</t>
+          <t>нз</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0.00114532406819109</v>
+        <v>0.0002090007423706369</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>мс</t>
+          <t>ьр</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0.001208860293871764</v>
+        <v>0.0002039847245537416</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>нс</t>
+          <t>дш</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0.0009697634445997552</v>
+        <v>0.0002023127186147765</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>уч</t>
+          <t>йа</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0.001157028109763846</v>
+        <v>0.0001972967007978812</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>йх</t>
+          <t>бк</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0.0001003203563379057</v>
+        <v>0.0001972967007978812</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>жб</t>
+          <t>цу</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>4.681616629102267e-05</v>
+        <v>0.0001972967007978812</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>зж</t>
+          <t>зс</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0.0001153684097885916</v>
+        <v>0.0001956246948589161</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>лд</t>
+          <t>нг</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0.0003210251402812983</v>
+        <v>0.000193952688919951</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ыо</t>
+          <t>тз</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0.0002524728967837294</v>
+        <v>0.0001922806829809859</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ые</t>
+          <t>жк</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0.001155356103824881</v>
+        <v>0.0001922806829809859</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>фн</t>
+          <t>км</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>0.0001922806829809859</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>рб</t>
+          <t>нб</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0.0001254004454223822</v>
+        <v>0.0001922806829809859</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ьу</t>
+          <t>юм</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0.0002441128670889039</v>
+        <v>0.0001906086770420209</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>оф</t>
+          <t>уу</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0.0004497695975816106</v>
+        <v>0.0001906086770420209</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ящ</t>
+          <t>ню</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0.0004480975916426455</v>
+        <v>0.0001872646651640907</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>фл</t>
+          <t>ьа</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0.000105336374154801</v>
+        <v>0.0001872646651640907</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>бн</t>
+          <t>уя</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0.0003828893600230068</v>
+        <v>0.0001855926592251256</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>юэ</t>
+          <t>цы</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1.839206532861605e-05</v>
+        <v>0.0001855926592251256</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>йл</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1.337604751172076e-05</v>
+        <v>0.0001839206532861605</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>юм</t>
+          <t>сх</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0.0001906086770420209</v>
+        <v>0.0001839206532861605</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>бщ</t>
+          <t>оц</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0.0001538245463847888</v>
+        <v>0.0001822486473471954</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>вй</t>
+          <t>пт</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>0.0001822486473471954</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>як</t>
+          <t>кж</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0.0009764514683556156</v>
+        <v>0.0001805766414082303</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ие</t>
+          <t>иф</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0.00228396011262632</v>
+        <v>0.0001805766414082303</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>лш</t>
+          <t>зь</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>7.022424943653399e-05</v>
+        <v>0.0001805766414082303</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>мр</t>
+          <t>юо</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0.0003026330749526823</v>
+        <v>0.0001789046354692652</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>яа</t>
+          <t>сш</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0.0002374248433330435</v>
+        <v>0.0001772326295303001</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>вж</t>
+          <t>уй</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>7.18962553754991e-05</v>
+        <v>0.0001738886176523699</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>аэ</t>
+          <t>тг</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0.0003494492412437049</v>
+        <v>0.0001705446057744397</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>жн</t>
+          <t>сг</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0.0007958748269473854</v>
+        <v>0.0001705446057744397</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>чз</t>
+          <t>тж</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>4.180014847412738e-05</v>
+        <v>0.0001705446057744397</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>уя</t>
+          <t>юр</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0.0001855926592251256</v>
+        <v>0.0001705446057744397</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>юл</t>
+          <t>щу</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>9.196032664308024e-05</v>
+        <v>0.0001705446057744397</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>сы</t>
+          <t>яю</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0.0003812173540840417</v>
+        <v>0.0001705446057744397</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ба</t>
+          <t>ьл</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0.001136964038496265</v>
+        <v>0.0001621845760796142</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>мм</t>
+          <t>хг</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0.0003561372649995653</v>
+        <v>0.0001605125701406491</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>цл</t>
+          <t>йж</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1.170404157275567e-05</v>
+        <v>0.0001571685582627189</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>уц</t>
+          <t>бщ</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1.672005938965095e-05</v>
+        <v>0.0001538245463847888</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>цт</t>
+          <t>хт</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>2.508008908447643e-05</v>
+        <v>0.0001521525404458237</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>чр</t>
+          <t>тэ</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0.0001120243979106614</v>
+        <v>0.0001521525404458237</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ря</t>
+          <t>зз</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0.00123059637107831</v>
+        <v>0.0001521525404458237</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>мэ</t>
+          <t>ьц</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0.0001170404157275567</v>
+        <v>0.0001504805345068586</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>кэ</t>
+          <t>ыу</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>9.363233258204533e-05</v>
+        <v>0.0001504805345068586</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ыи</t>
+          <t>хд</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0.0003812173540840417</v>
+        <v>0.0001504805345068586</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>лз</t>
+          <t>ьэ</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0.0002190327780044275</v>
+        <v>0.0001488085285678935</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>юн</t>
+          <t>сж</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0.0002926010393188916</v>
+        <v>0.0001471365226289284</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>нк</t>
+          <t>яэ</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0.0004781936985440172</v>
+        <v>0.0001471365226289284</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ья</t>
+          <t>йц</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0.0006186421974170853</v>
+        <v>0.0001387764929341029</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>яр</t>
+          <t>юг</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0.0003243691521592285</v>
+        <v>0.0001320884691782425</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>оа</t>
+          <t>хб</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0.0003026330749526823</v>
+        <v>0.0001304164632392774</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>яз</t>
+          <t>нр</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0.0006286742330508758</v>
+        <v>0.0001270724513613472</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ыу</t>
+          <t>дб</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0.0001504805345068586</v>
+        <v>0.0001270724513613472</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>нб</t>
+          <t>ыж</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0.0001922806829809859</v>
+        <v>0.0001254004454223822</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>тю</t>
+          <t>рб</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>8.527230288721986e-05</v>
+        <v>0.0001254004454223822</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>вц</t>
+          <t>кд</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>6.186421974170853e-05</v>
+        <v>0.0001254004454223822</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>цв</t>
+          <t>чо</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0.0001153684097885916</v>
+        <v>0.0001237284394834171</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>уф</t>
+          <t>ац</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0.0002658489442954502</v>
+        <v>0.0001203844276054869</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ях</t>
+          <t>сз</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0.0002558169086616596</v>
+        <v>0.0001203844276054869</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>дм</t>
+          <t>кз</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0.0002340808314551133</v>
+        <v>0.0001187124216665218</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>шк</t>
+          <t>мэ</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0.0004648176510322965</v>
+        <v>0.0001170404157275567</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>зч</t>
+          <t>хе</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>6.520823161963871e-05</v>
+        <v>0.0001153684097885916</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>йл</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0.0001839206532861605</v>
+        <v>0.0001153684097885916</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>цп</t>
+          <t>зж</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>4.514416035205757e-05</v>
+        <v>0.0001153684097885916</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>йд</t>
+          <t>цв</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0.0005116338173233191</v>
+        <v>0.0001153684097885916</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>дя</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0.0005032737876284936</v>
+        <v>0.0001153684097885916</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>мь</t>
+          <t>сю</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>5.350419004688304e-05</v>
+        <v>0.0001136964038496265</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>хш</t>
+          <t>гк</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>5.684820192481324e-05</v>
+        <v>0.0001136964038496265</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>нг</t>
+          <t>чр</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0.000193952688919951</v>
+        <v>0.0001120243979106614</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>мз</t>
+          <t>пк</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0.0002541449027226945</v>
+        <v>0.0001086803860327312</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>тэ</t>
+          <t>сц</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0.0001521525404458237</v>
+        <v>0.0001086803860327312</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>хэ</t>
+          <t>рр</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>4.514416035205757e-05</v>
+        <v>0.0001070083800937661</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>сх</t>
+          <t>яш</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0.0001839206532861605</v>
+        <v>0.0001070083800937661</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ищ</t>
+          <t>нм</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0.0002541449027226945</v>
+        <v>0.0001070083800937661</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>щу</t>
+          <t>дч</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0.0001705446057744397</v>
+        <v>0.000105336374154801</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>дб</t>
+          <t>фл</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0.0001270724513613472</v>
+        <v>0.000105336374154801</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ьх</t>
+          <t>бс</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>8.360029694825476e-05</v>
+        <v>0.000105336374154801</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>рр</t>
+          <t>хз</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0.0001070083800937661</v>
+        <v>0.000105336374154801</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>хк</t>
+          <t>пь</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0.0002859130155630313</v>
+        <v>0.0001036643682158359</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>мф</t>
+          <t>йх</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>4.347215441309247e-05</v>
+        <v>0.0001003203563379057</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>фр</t>
+          <t>йя</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0.0002257208017602879</v>
+        <v>0.0001003203563379057</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>бх</t>
+          <t>мж</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>3.34401187793019e-05</v>
+        <v>9.864835039894061e-05</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>лх</t>
+          <t>тф</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>4.012814253516228e-05</v>
+        <v>9.697634445997552e-05</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>бэ</t>
+          <t>уэ</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>5.183218410791795e-05</v>
+        <v>9.530433852101043e-05</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>рж</t>
+          <t>кэ</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0.0002775529858682058</v>
+        <v>9.363233258204533e-05</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>вэ</t>
+          <t>ыа</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0.0003076490927695775</v>
+        <v>9.363233258204533e-05</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>гп</t>
+          <t>юл</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>7.858427913135947e-05</v>
+        <v>9.196032664308024e-05</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>дш</t>
+          <t>рз</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0.0002023127186147765</v>
+        <v>9.028832070411515e-05</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>яю</t>
+          <t>нф</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0.0001705446057744397</v>
+        <v>9.028832070411515e-05</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>жл</t>
+          <t>юх</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>5.183218410791795e-05</v>
+        <v>8.861631476515004e-05</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>цу</t>
+          <t>йэ</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0.0001972967007978812</v>
+        <v>8.694430882618495e-05</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>цс</t>
+          <t>лэ</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>4.848817222998776e-05</v>
+        <v>8.694430882618495e-05</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>хж</t>
+          <t>тю</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>2.675209502344152e-05</v>
+        <v>8.527230288721986e-05</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>тл</t>
+          <t>дз</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0.0003979374134736927</v>
+        <v>8.527230288721986e-05</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>дт</t>
+          <t>жо</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0.0003226971462202634</v>
+        <v>8.360029694825476e-05</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>юб</t>
+          <t>ьх</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0.0002708649621123454</v>
+        <v>8.360029694825476e-05</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>бя</t>
+          <t>дг</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0.0003962654075347276</v>
+        <v>8.360029694825476e-05</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>вя</t>
+          <t>йф</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0.0003661693006333558</v>
+        <v>8.360029694825476e-05</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>лк</t>
+          <t>шв</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0.00114866808006902</v>
+        <v>8.360029694825476e-05</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ыа</t>
+          <t>хч</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>9.363233258204533e-05</v>
+        <v>8.192829100928967e-05</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>зб</t>
+          <t>мх</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0.0002608329264785549</v>
+        <v>8.192829100928967e-05</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>яф</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0.0001153684097885916</v>
+        <v>8.192829100928967e-05</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>иэ</t>
+          <t>йе</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>0.0002441128670889039</v>
+        <v>8.025628507032456e-05</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>бв</t>
+          <t>чп</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>4.347215441309247e-05</v>
+        <v>8.025628507032456e-05</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>еэ</t>
+          <t>вх</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0.000299289063074752</v>
+        <v>8.025628507032456e-05</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>яг</t>
+          <t>юз</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0.000421345496619204</v>
+        <v>8.025628507032456e-05</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>пя</t>
+          <t>гп</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0.0004531136094595408</v>
+        <v>7.858427913135947e-05</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>хд</t>
+          <t>рц</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0.0001504805345068586</v>
+        <v>7.858427913135947e-05</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>дь</t>
+          <t>юш</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0.0006905384527925843</v>
+        <v>7.691227319239438e-05</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>цб</t>
+          <t>юа</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1.672005938965095e-05</v>
+        <v>7.691227319239438e-05</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>бс</t>
+          <t>пп</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0.000105336374154801</v>
+        <v>7.524026725342928e-05</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>мш</t>
+          <t>зт</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>7.022424943653399e-05</v>
+        <v>7.18962553754991e-05</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>дэ</t>
+          <t>вж</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>3.009610690137171e-05</v>
+        <v>7.18962553754991e-05</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>зя</t>
+          <t>шп</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0.0002541449027226945</v>
+        <v>7.18962553754991e-05</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ыэ</t>
+          <t>гс</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>6.688023755860381e-05</v>
+        <v>7.18962553754991e-05</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>нф</t>
+          <t>юю</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>9.028832070411515e-05</v>
+        <v>7.022424943653399e-05</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>фе</t>
+          <t>лш</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0.000598578126149504</v>
+        <v>7.022424943653399e-05</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>лж</t>
+          <t>мш</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0.0002892570274409615</v>
+        <v>7.022424943653399e-05</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>цн</t>
+          <t>ыэ</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>3.67841306572321e-05</v>
+        <v>6.688023755860381e-05</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>хз</t>
+          <t>яц</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0.000105336374154801</v>
+        <v>6.688023755860381e-05</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>гк</t>
+          <t>дж</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0.0001136964038496265</v>
+        <v>6.520823161963871e-05</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>нх</t>
+          <t>зч</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>4.180014847412738e-05</v>
+        <v>6.520823161963871e-05</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>вх</t>
+          <t>чш</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>8.025628507032456e-05</v>
+        <v>6.520823161963871e-05</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>уу</t>
+          <t>щн</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0.0001906086770420209</v>
+        <v>6.520823161963871e-05</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>жм</t>
+          <t>гч</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>1.839206532861605e-05</v>
+        <v>6.353622568067362e-05</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>ют</t>
+          <t>чв</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0.0004614736391543663</v>
+        <v>6.353622568067362e-05</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>кш</t>
+          <t>лф</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>4.848817222998776e-05</v>
+        <v>6.353622568067362e-05</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>гв</t>
+          <t>фу</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>5.684820192481324e-05</v>
+        <v>6.186421974170853e-05</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>юу</t>
+          <t>бм</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>5.852020786377833e-05</v>
+        <v>6.186421974170853e-05</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>цр</t>
+          <t>вц</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>5.183218410791795e-05</v>
+        <v>6.186421974170853e-05</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>цд</t>
+          <t>кя</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1.672005938965095e-05</v>
+        <v>6.186421974170853e-05</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>бь</t>
+          <t>ыя</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0.0002123447542485671</v>
+        <v>6.186421974170853e-05</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>кя</t>
+          <t>дд</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>6.186421974170853e-05</v>
+        <v>6.019221380274343e-05</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>рм</t>
+          <t>юу</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0.0002708649621123454</v>
+        <v>5.852020786377833e-05</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>кз</t>
+          <t>юж</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0.0001187124216665218</v>
+        <v>5.684820192481324e-05</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>фо</t>
+          <t>хш</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0.000299289063074752</v>
+        <v>5.684820192481324e-05</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>яш</t>
+          <t>гв</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0.0001070083800937661</v>
+        <v>5.684820192481324e-05</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>рп</t>
+          <t>яй</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0.0002842410096240662</v>
+        <v>5.684820192481324e-05</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>сш</t>
+          <t>ьф</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0.0001772326295303001</v>
+        <v>5.684820192481324e-05</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ьа</t>
+          <t>чс</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0.0001872646651640907</v>
+        <v>5.350419004688304e-05</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>гм</t>
+          <t>мь</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>2.508008908447643e-05</v>
+        <v>5.350419004688304e-05</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>кд</t>
+          <t>тх</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0.0001254004454223822</v>
+        <v>5.350419004688304e-05</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>цэ</t>
+          <t>сэ</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>5.350419004688304e-05</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>пт</t>
+          <t>бэ</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0.0001822486473471954</v>
+        <v>5.183218410791795e-05</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>цы</t>
+          <t>жл</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0.0001855926592251256</v>
+        <v>5.183218410791795e-05</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>гз</t>
+          <t>цр</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>4.514416035205757e-05</v>
+        <v>5.183218410791795e-05</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>жс</t>
+          <t>нж</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>4.514416035205757e-05</v>
+        <v>5.183218410791795e-05</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>шп</t>
+          <t>цс</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>7.18962553754991e-05</v>
+        <v>4.848817222998776e-05</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>нэ</t>
+          <t>кш</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>3.34401187793019e-05</v>
+        <v>4.848817222998776e-05</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>тх</t>
+          <t>рщ</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>5.350419004688304e-05</v>
+        <v>4.848817222998776e-05</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>мж</t>
+          <t>ьж</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>9.864835039894061e-05</v>
+        <v>4.848817222998776e-05</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>йя</t>
+          <t>пс</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0.0001003203563379057</v>
+        <v>4.681616629102267e-05</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ыя</t>
+          <t>жб</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>6.186421974170853e-05</v>
+        <v>4.681616629102267e-05</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>гч</t>
+          <t>сф</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>6.353622568067362e-05</v>
+        <v>4.681616629102267e-05</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>яц</t>
+          <t>чл</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>6.688023755860381e-05</v>
+        <v>4.681616629102267e-05</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>рц</t>
+          <t>дх</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>7.858427913135947e-05</v>
+        <v>4.681616629102267e-05</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>тф</t>
+          <t>цп</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>9.697634445997552e-05</v>
+        <v>4.514416035205757e-05</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ощ</t>
+          <t>хэ</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0.0002758809799292407</v>
+        <v>4.514416035205757e-05</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>юи</t>
+          <t>гз</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0.0002123447542485671</v>
+        <v>4.514416035205757e-05</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>лщ</t>
+          <t>жс</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>4.514416035205757e-05</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>сз</t>
+          <t>мф</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0.0001203844276054869</v>
+        <v>4.347215441309247e-05</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>вь</t>
+          <t>бв</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0.0005751700430039928</v>
+        <v>4.347215441309247e-05</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>дг</t>
+          <t>жч</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>8.360029694825476e-05</v>
+        <v>4.347215441309247e-05</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>юг</t>
+          <t>чз</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0.0001320884691782425</v>
+        <v>4.180014847412738e-05</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>пч</t>
+          <t>нх</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>2.675209502344152e-05</v>
+        <v>4.180014847412738e-05</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>юд</t>
+          <t>юф</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0.0003745293303281813</v>
+        <v>4.180014847412738e-05</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>зз</t>
+          <t>кх</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0.0001521525404458237</v>
+        <v>4.012814253516228e-05</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>вф</t>
+          <t>лх</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -7168,527 +7168,527 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>яй</t>
+          <t>вф</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>5.684820192481324e-05</v>
+        <v>4.012814253516228e-05</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>уа</t>
+          <t>гт</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0.0003143371165254379</v>
+        <v>4.012814253516228e-05</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>цг</t>
+          <t>тш</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1.003203563379057e-05</v>
+        <v>4.012814253516228e-05</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>бт</t>
+          <t>эк</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1.170404157275567e-05</v>
+        <v>4.012814253516228e-05</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>яя</t>
+          <t>чб</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0.0002340808314551133</v>
+        <v>3.845613659619719e-05</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>йц</t>
+          <t>нл</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0.0001387764929341029</v>
+        <v>3.845613659619719e-05</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>хг</t>
+          <t>юц</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0.0001605125701406491</v>
+        <v>3.67841306572321e-05</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>юз</t>
+          <t>цн</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>8.025628507032456e-05</v>
+        <v>3.67841306572321e-05</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>жг</t>
+          <t>юя</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>2.173607720654624e-05</v>
+        <v>3.67841306572321e-05</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>рщ</t>
+          <t>фы</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>4.848817222998776e-05</v>
+        <v>3.67841306572321e-05</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>фф</t>
+          <t>цк</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1.337604751172076e-05</v>
+        <v>3.67841306572321e-05</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>гс</t>
+          <t>кц</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>7.18962553754991e-05</v>
+        <v>3.5112124718267e-05</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>юя</t>
+          <t>юе</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>3.67841306572321e-05</v>
+        <v>3.5112124718267e-05</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>юф</t>
+          <t>пю</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>4.180014847412738e-05</v>
+        <v>3.5112124718267e-05</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>гх</t>
+          <t>бх</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>3.34401187793019e-05</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>пь</t>
+          <t>нэ</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0.0001036643682158359</v>
+        <v>3.34401187793019e-05</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>хщ</t>
+          <t>вщ</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>3.34401187793019e-05</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>мх</t>
+          <t>зэ</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>8.192829100928967e-05</v>
+        <v>3.176811284033681e-05</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>юх</t>
+          <t>дэ</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>8.861631476515004e-05</v>
+        <v>3.009610690137171e-05</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>гт</t>
+          <t>рэ</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>4.012814253516228e-05</v>
+        <v>3.009610690137171e-05</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>нм</t>
+          <t>гб</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0.0001070083800937661</v>
+        <v>3.009610690137171e-05</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>сф</t>
+          <t>йщ</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>4.681616629102267e-05</v>
+        <v>3.009610690137171e-05</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>дз</t>
+          <t>тц</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>8.527230288721986e-05</v>
+        <v>2.842410096240662e-05</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>ьф</t>
+          <t>эх</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>5.684820192481324e-05</v>
+        <v>2.842410096240662e-05</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>йф</t>
+          <t>хх</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>8.360029694825476e-05</v>
+        <v>2.842410096240662e-05</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>фы</t>
+          <t>фс</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>3.67841306572321e-05</v>
+        <v>2.842410096240662e-05</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>сэ</t>
+          <t>хж</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>5.350419004688304e-05</v>
+        <v>2.675209502344152e-05</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>мю</t>
+          <t>пч</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>2.675209502344152e-05</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>ьж</t>
+          <t>жв</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>4.848817222998776e-05</v>
+        <v>2.675209502344152e-05</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>чл</t>
+          <t>жт</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>4.681616629102267e-05</v>
+        <v>2.508008908447643e-05</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>тц</t>
+          <t>цт</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>2.842410096240662e-05</v>
+        <v>2.508008908447643e-05</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>тш</t>
+          <t>гм</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>4.012814253516228e-05</v>
+        <v>2.508008908447643e-05</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>чш</t>
+          <t>эл</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>6.520823161963871e-05</v>
+        <v>2.508008908447643e-05</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>шв</t>
+          <t>хф</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>8.360029694825476e-05</v>
+        <v>2.508008908447643e-05</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>яэ</t>
+          <t>нш</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0.0001471365226289284</v>
+        <v>2.508008908447643e-05</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>гг</t>
+          <t>щь</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1.003203563379057e-05</v>
+        <v>2.508008908447643e-05</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>фк</t>
+          <t>хя</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>2.340808314551133e-05</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>щн</t>
+          <t>бг</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>6.520823161963871e-05</v>
+        <v>2.340808314551133e-05</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>пю</t>
+          <t>жг</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>3.5112124718267e-05</v>
+        <v>2.173607720654624e-05</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>рэ</t>
+          <t>эн</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>3.009610690137171e-05</v>
+        <v>2.173607720654624e-05</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>бж</t>
+          <t>жь</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1.504805345068586e-05</v>
+        <v>2.173607720654624e-05</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>гж</t>
+          <t>ьщ</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>2.006407126758114e-05</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>вщ</t>
+          <t>бю</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>3.34401187793019e-05</v>
+        <v>2.006407126758114e-05</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>нж</t>
+          <t>фт</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>5.183218410791795e-05</v>
+        <v>2.006407126758114e-05</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>бш</t>
+          <t>пш</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>2.006407126758114e-05</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ьщ</t>
+          <t>бп</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>2.006407126758114e-05</v>
+        <v>1.839206532861605e-05</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>щс</t>
+          <t>юэ</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>1.839206532861605e-05</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>зш</t>
+          <t>жм</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>1.672005938965095e-05</v>
+        <v>1.839206532861605e-05</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ыф</t>
+          <t>ыц</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1.170404157275567e-05</v>
+        <v>1.839206532861605e-05</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>чв</t>
+          <t>мц</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>6.353622568067362e-05</v>
+        <v>1.839206532861605e-05</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>пз</t>
+          <t>эс</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>1.839206532861605e-05</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ыц</t>
+          <t>уц</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>1.839206532861605e-05</v>
+        <v>1.672005938965095e-05</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>шр</t>
+          <t>цб</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -7698,387 +7698,387 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>цк</t>
+          <t>цд</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>3.67841306572321e-05</v>
+        <v>1.672005938965095e-05</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>жэ</t>
+          <t>зш</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>1.504805345068586e-05</v>
+        <v>1.672005938965095e-05</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>бю</t>
+          <t>шр</t>
         </is>
       </c>
       <c r="B729" t="n">
-        <v>2.006407126758114e-05</v>
+        <v>1.672005938965095e-05</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>жв</t>
+          <t>фь</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>2.675209502344152e-05</v>
+        <v>1.672005938965095e-05</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>мц</t>
+          <t>бж</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>1.839206532861605e-05</v>
+        <v>1.504805345068586e-05</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>эг</t>
+          <t>жэ</t>
         </is>
       </c>
       <c r="B732" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>1.504805345068586e-05</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>эл</t>
+          <t>чг</t>
         </is>
       </c>
       <c r="B733" t="n">
-        <v>2.508008908447643e-05</v>
+        <v>1.504805345068586e-05</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>зх</t>
+          <t>дю</t>
         </is>
       </c>
       <c r="B734" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>1.504805345068586e-05</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>хф</t>
+          <t>лц</t>
         </is>
       </c>
       <c r="B735" t="n">
-        <v>2.508008908447643e-05</v>
+        <v>1.504805345068586e-05</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>эн</t>
+          <t>бб</t>
         </is>
       </c>
       <c r="B736" t="n">
-        <v>2.173607720654624e-05</v>
+        <v>1.504805345068586e-05</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>эй</t>
+          <t>эр</t>
         </is>
       </c>
       <c r="B737" t="n">
-        <v>1.170404157275567e-05</v>
+        <v>1.337604751172076e-05</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>сц</t>
+          <t>фф</t>
         </is>
       </c>
       <c r="B738" t="n">
-        <v>0.0001086803860327312</v>
+        <v>1.337604751172076e-05</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>эк</t>
+          <t>жп</t>
         </is>
       </c>
       <c r="B739" t="n">
-        <v>4.012814253516228e-05</v>
+        <v>1.337604751172076e-05</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>чг</t>
+          <t>чд</t>
         </is>
       </c>
       <c r="B740" t="n">
-        <v>1.504805345068586e-05</v>
+        <v>1.337604751172076e-05</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>фт</t>
+          <t>пв</t>
         </is>
       </c>
       <c r="B741" t="n">
-        <v>2.006407126758114e-05</v>
+        <v>1.337604751172076e-05</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>жч</t>
+          <t>ыщ</t>
         </is>
       </c>
       <c r="B742" t="n">
-        <v>4.347215441309247e-05</v>
+        <v>1.337604751172076e-05</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>яф</t>
+          <t>тщ</t>
         </is>
       </c>
       <c r="B743" t="n">
-        <v>8.192829100928967e-05</v>
+        <v>1.337604751172076e-05</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>лф</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="B744" t="n">
-        <v>6.353622568067362e-05</v>
+        <v>1.170404157275567e-05</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>рф</t>
+          <t>цл</t>
         </is>
       </c>
       <c r="B745" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>1.170404157275567e-05</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>эх</t>
+          <t>бт</t>
         </is>
       </c>
       <c r="B746" t="n">
-        <v>2.842410096240662e-05</v>
+        <v>1.170404157275567e-05</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>хх</t>
+          <t>ыф</t>
         </is>
       </c>
       <c r="B747" t="n">
-        <v>2.842410096240662e-05</v>
+        <v>1.170404157275567e-05</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>эз</t>
+          <t>эй</t>
         </is>
       </c>
       <c r="B748" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>1.170404157275567e-05</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>жп</t>
+          <t>жж</t>
         </is>
       </c>
       <c r="B749" t="n">
-        <v>1.337604751172076e-05</v>
+        <v>1.170404157275567e-05</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>жз</t>
+          <t>кф</t>
         </is>
       </c>
       <c r="B750" t="n">
-        <v>1.003203563379057e-05</v>
+        <v>1.170404157275567e-05</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>эс</t>
+          <t>ця</t>
         </is>
       </c>
       <c r="B751" t="n">
-        <v>1.839206532861605e-05</v>
+        <v>1.003203563379057e-05</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>гб</t>
+          <t>цг</t>
         </is>
       </c>
       <c r="B752" t="n">
-        <v>3.009610690137171e-05</v>
+        <v>1.003203563379057e-05</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>хц</t>
+          <t>гг</t>
         </is>
       </c>
       <c r="B753" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>1.003203563379057e-05</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>цз</t>
+          <t>жз</t>
         </is>
       </c>
       <c r="B754" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>1.003203563379057e-05</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>нш</t>
+          <t>цм</t>
         </is>
       </c>
       <c r="B755" t="n">
-        <v>2.508008908447643e-05</v>
+        <v>1.003203563379057e-05</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>фд</t>
+          <t>бд</t>
         </is>
       </c>
       <c r="B756" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>1.003203563379057e-05</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>чд</t>
+          <t>жр</t>
         </is>
       </c>
       <c r="B757" t="n">
-        <v>1.337604751172076e-05</v>
+        <v>1.003203563379057e-05</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>пв</t>
+          <t>хь</t>
         </is>
       </c>
       <c r="B758" t="n">
-        <v>1.337604751172076e-05</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>жж</t>
+          <t>фн</t>
         </is>
       </c>
       <c r="B759" t="n">
-        <v>1.170404157275567e-05</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>пш</t>
+          <t>бш</t>
         </is>
       </c>
       <c r="B760" t="n">
-        <v>2.006407126758114e-05</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>фж</t>
+          <t>зх</t>
         </is>
       </c>
       <c r="B761" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>фв</t>
+          <t>цз</t>
         </is>
       </c>
       <c r="B762" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>ыщ</t>
+          <t>шм</t>
         </is>
       </c>
       <c r="B763" t="n">
-        <v>1.337604751172076e-05</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>щб</t>
+          <t>эф</t>
         </is>
       </c>
       <c r="B764" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>шм</t>
+          <t>бч</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -8088,61 +8088,61 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>цх</t>
+          <t>гэ</t>
         </is>
       </c>
       <c r="B766" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>тщ</t>
+          <t>вю</t>
         </is>
       </c>
       <c r="B767" t="n">
-        <v>1.337604751172076e-05</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>цм</t>
+          <t>мщ</t>
         </is>
       </c>
       <c r="B768" t="n">
-        <v>1.003203563379057e-05</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>фс</t>
+          <t>що</t>
         </is>
       </c>
       <c r="B769" t="n">
-        <v>2.842410096240662e-05</v>
+        <v>8.360029694825476e-06</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>щд</t>
+          <t>лщ</t>
         </is>
       </c>
       <c r="B770" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>эф</t>
+          <t>рф</t>
         </is>
       </c>
       <c r="B771" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8158,27 +8158,27 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>гя</t>
+          <t>йю</t>
         </is>
       </c>
       <c r="B773" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>бц</t>
+          <t>чя</t>
         </is>
       </c>
       <c r="B774" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>йю</t>
+          <t>зц</t>
         </is>
       </c>
       <c r="B775" t="n">
@@ -8188,127 +8188,127 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>гц</t>
+          <t>шд</t>
         </is>
       </c>
       <c r="B776" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>щь</t>
+          <t>эп</t>
         </is>
       </c>
       <c r="B777" t="n">
-        <v>2.508008908447643e-05</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>йщ</t>
+          <t>жя</t>
         </is>
       </c>
       <c r="B778" t="n">
-        <v>3.009610690137171e-05</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>дх</t>
+          <t>шс</t>
         </is>
       </c>
       <c r="B779" t="n">
-        <v>4.681616629102267e-05</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>эа</t>
+          <t>жх</t>
         </is>
       </c>
       <c r="B780" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>бд</t>
+          <t>чм</t>
         </is>
       </c>
       <c r="B781" t="n">
-        <v>1.003203563379057e-05</v>
+        <v>6.688023755860381e-06</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>дю</t>
+          <t>мю</t>
         </is>
       </c>
       <c r="B782" t="n">
-        <v>1.504805345068586e-05</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>чя</t>
+          <t>эг</t>
         </is>
       </c>
       <c r="B783" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>бч</t>
+          <t>эз</t>
         </is>
       </c>
       <c r="B784" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>зц</t>
+          <t>фв</t>
         </is>
       </c>
       <c r="B785" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>шд</t>
+          <t>щб</t>
         </is>
       </c>
       <c r="B786" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>цц</t>
+          <t>цч</t>
         </is>
       </c>
       <c r="B787" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>цч</t>
+          <t>щв</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -8318,7 +8318,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>щв</t>
+          <t>пц</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -8328,47 +8328,47 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>кф</t>
+          <t>щп</t>
         </is>
       </c>
       <c r="B790" t="n">
-        <v>1.170404157275567e-05</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>гэ</t>
+          <t>бз</t>
         </is>
       </c>
       <c r="B791" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>лц</t>
+          <t>кю</t>
         </is>
       </c>
       <c r="B792" t="n">
-        <v>1.504805345068586e-05</v>
+        <v>5.016017816895285e-06</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>жь</t>
+          <t>вй</t>
         </is>
       </c>
       <c r="B793" t="n">
-        <v>2.173607720654624e-05</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>шг</t>
+          <t>цэ</t>
         </is>
       </c>
       <c r="B794" t="n">
@@ -8378,7 +8378,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>фп</t>
+          <t>гх</t>
         </is>
       </c>
       <c r="B795" t="n">
@@ -8388,7 +8388,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>шх</t>
+          <t>гж</t>
         </is>
       </c>
       <c r="B796" t="n">
@@ -8398,17 +8398,17 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>эп</t>
+          <t>щс</t>
         </is>
       </c>
       <c r="B797" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>дф</t>
+          <t>пз</t>
         </is>
       </c>
       <c r="B798" t="n">
@@ -8418,71 +8418,71 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>жя</t>
+          <t>хц</t>
         </is>
       </c>
       <c r="B799" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>хя</t>
+          <t>цх</t>
         </is>
       </c>
       <c r="B800" t="n">
-        <v>2.340808314551133e-05</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>вю</t>
+          <t>цц</t>
         </is>
       </c>
       <c r="B801" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>бг</t>
+          <t>шг</t>
         </is>
       </c>
       <c r="B802" t="n">
-        <v>2.340808314551133e-05</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>шс</t>
+          <t>фп</t>
         </is>
       </c>
       <c r="B803" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>эу</t>
+          <t>шх</t>
         </is>
       </c>
       <c r="B804" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>жх</t>
+          <t>дф</t>
         </is>
       </c>
       <c r="B805" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="806">
@@ -8498,57 +8498,57 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>шз</t>
+          <t>сщ</t>
         </is>
       </c>
       <c r="B807" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>чм</t>
+          <t>щт</t>
         </is>
       </c>
       <c r="B808" t="n">
-        <v>6.688023755860381e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>кщ</t>
+          <t>чэ</t>
         </is>
       </c>
       <c r="B809" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>зй</t>
+          <t>пб</t>
         </is>
       </c>
       <c r="B810" t="n">
-        <v>1.672005938965095e-06</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>жр</t>
+          <t>эд</t>
         </is>
       </c>
       <c r="B811" t="n">
-        <v>1.003203563379057e-05</v>
+        <v>3.34401187793019e-06</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>сщ</t>
+          <t>щр</t>
         </is>
       </c>
       <c r="B812" t="n">
@@ -8558,27 +8558,27 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>пц</t>
+          <t>хщ</t>
         </is>
       </c>
       <c r="B813" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>мщ</t>
+          <t>фк</t>
         </is>
       </c>
       <c r="B814" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>зю</t>
+          <t>фд</t>
         </is>
       </c>
       <c r="B815" t="n">
@@ -8588,17 +8588,17 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>щт</t>
+          <t>фж</t>
         </is>
       </c>
       <c r="B816" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>чж</t>
+          <t>щд</t>
         </is>
       </c>
       <c r="B817" t="n">
@@ -8608,67 +8608,67 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>щп</t>
+          <t>гя</t>
         </is>
       </c>
       <c r="B818" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>чэ</t>
+          <t>бц</t>
         </is>
       </c>
       <c r="B819" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>пб</t>
+          <t>гц</t>
         </is>
       </c>
       <c r="B820" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>эд</t>
+          <t>эа</t>
         </is>
       </c>
       <c r="B821" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>бз</t>
+          <t>эу</t>
         </is>
       </c>
       <c r="B822" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>фь</t>
+          <t>шз</t>
         </is>
       </c>
       <c r="B823" t="n">
-        <v>1.672005938965095e-05</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>чх</t>
+          <t>кщ</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -8678,17 +8678,17 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>щр</t>
+          <t>зй</t>
         </is>
       </c>
       <c r="B825" t="n">
-        <v>3.34401187793019e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>зф</t>
+          <t>зю</t>
         </is>
       </c>
       <c r="B826" t="n">
@@ -8698,7 +8698,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>пм</t>
+          <t>чж</t>
         </is>
       </c>
       <c r="B827" t="n">
@@ -8708,7 +8708,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>фч</t>
+          <t>чх</t>
         </is>
       </c>
       <c r="B828" t="n">
@@ -8718,17 +8718,17 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>бб</t>
+          <t>зф</t>
         </is>
       </c>
       <c r="B829" t="n">
-        <v>1.504805345068586e-05</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>цш</t>
+          <t>пм</t>
         </is>
       </c>
       <c r="B830" t="n">
@@ -8738,7 +8738,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>чч</t>
+          <t>фч</t>
         </is>
       </c>
       <c r="B831" t="n">
@@ -8748,7 +8748,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>гф</t>
+          <t>цш</t>
         </is>
       </c>
       <c r="B832" t="n">
@@ -8758,7 +8758,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>пг</t>
+          <t>чч</t>
         </is>
       </c>
       <c r="B833" t="n">
@@ -8768,17 +8768,17 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>кю</t>
+          <t>гф</t>
         </is>
       </c>
       <c r="B834" t="n">
-        <v>5.016017816895285e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>зщ</t>
+          <t>пг</t>
         </is>
       </c>
       <c r="B835" t="n">
@@ -8788,11 +8788,11 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>що</t>
+          <t>зщ</t>
         </is>
       </c>
       <c r="B836" t="n">
-        <v>8.360029694825476e-06</v>
+        <v>1.672005938965095e-06</v>
       </c>
     </row>
     <row r="837">
